--- a/biology/Médecine/1361_en_santé_et_médecine/1361_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1361_en_santé_et_médecine/1361_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1361_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1361_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1361 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1361_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1361_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 avril : Charles IV, empereur d'Allemagne, fonde à Pavie un studium generale « organisé en deux universités ou corporations séparées que nous appellerions aujourd'hui facultés : celle des juristes et celle des médecins et artistes[1] ».
-Fondation à Paris de l'hôpital du Saint-Esprit, établissement destiné à l'accueil des enfants[2].
-Le roi de France Charles V favorise la commanderie du Petit-Saint-Antoine, créée en 1095 à Paris pour soigner le mal des ardents et confiée aux antonins par Gaston de Valloire, son fondateur, « en bâtissant une église et en élargissant la bande de terrain qu'il occup[e] entre les rues Saint-Antoine et du Roi-de-Sicile ; l'établissement perdra sa fonction hospitalière en 1619 pour devenir un monastère[3],[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 avril : Charles IV, empereur d'Allemagne, fonde à Pavie un studium generale « organisé en deux universités ou corporations séparées que nous appellerions aujourd'hui facultés : celle des juristes et celle des médecins et artistes ».
+Fondation à Paris de l'hôpital du Saint-Esprit, établissement destiné à l'accueil des enfants.
+Le roi de France Charles V favorise la commanderie du Petit-Saint-Antoine, créée en 1095 à Paris pour soigner le mal des ardents et confiée aux antonins par Gaston de Valloire, son fondateur, « en bâtissant une église et en élargissant la bande de terrain qu'il occup[e] entre les rues Saint-Antoine et du Roi-de-Sicile ; l'établissement perdra sa fonction hospitalière en 1619 pour devenir un monastère, ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1361_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1361_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Hua Shou (1304-1381), médecin chinois, rédige le Nanjing Benyi (« Signification première du Classique des difficultés[5] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hua Shou (1304-1381), médecin chinois, rédige le Nanjing Benyi (« Signification première du Classique des difficultés »).</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1361_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1361_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Simon ben Zemah Duran (mort en 1444), philosophe, astronome, mathématicien et médecin juif d'origine provençale, né à Palma et réfugié à Alger, ayant pratiqué la médecine dans l'une et l'autre de ces villes et devenu rabbin de la deuxième[6],[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Simon ben Zemah Duran (mort en 1444), philosophe, astronome, mathématicien et médecin juif d'origine provençale, né à Palma et réfugié à Alger, ayant pratiqué la médecine dans l'une et l'autre de ces villes et devenu rabbin de la deuxième,.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1361_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1361_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,13 +621,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Entre le 19 mai et le 12 juin : Guillaume de Lafont (né à une date inconnue), maître en médecine, camérier du cardinal blanc ; il lègue aux hôpitaux de Montpellier le produit de la vente de ses livres d'Avicenne et de Galien et, à des étudiants en médecine pauvres, le reste de sa bibliothèque médicale[8].
-Jean de Gaddesden (né vers 1280), médecin anglais, auteur de la Rosa medicinae, important traité de médecine probablement achevé en 1307[9].
-Paul de Vetulis (né à une date inconnue), médecin à la cour d'Avignon à partir de 1331[10].
-Vers 1359-1361 : Jourdain de Cantuaria (né à une date inconnue), médecin du roi d'Angleterre Édouard III[10].
-Avant 1361 (?) : David Bonjorn de Barri (ca) (né vers 1300), astronome juif catalan, auteur d'un « bref résumé » (Kelal Qatan) d'astrologie appliquée à la médecine[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Entre le 19 mai et le 12 juin : Guillaume de Lafont (né à une date inconnue), maître en médecine, camérier du cardinal blanc ; il lègue aux hôpitaux de Montpellier le produit de la vente de ses livres d'Avicenne et de Galien et, à des étudiants en médecine pauvres, le reste de sa bibliothèque médicale.
+Jean de Gaddesden (né vers 1280), médecin anglais, auteur de la Rosa medicinae, important traité de médecine probablement achevé en 1307.
+Paul de Vetulis (né à une date inconnue), médecin à la cour d'Avignon à partir de 1331.
+Vers 1359-1361 : Jourdain de Cantuaria (né à une date inconnue), médecin du roi d'Angleterre Édouard III.
+Avant 1361 (?) : David Bonjorn de Barri (ca) (né vers 1300), astronome juif catalan, auteur d'un « bref résumé » (Kelal Qatan) d'astrologie appliquée à la médecine.</t>
         </is>
       </c>
     </row>
